--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -5,14 +5,14 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano\Development\web\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano\Development\new\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065"/>
   </bookViews>
   <sheets>
-    <sheet name="Pagina 1" sheetId="3" r:id="rId1"/>
+    <sheet name="Pagina 1" sheetId="15" r:id="rId1"/>
     <sheet name="Pagina 2" sheetId="2" r:id="rId2"/>
     <sheet name="Pagina 3" sheetId="5" r:id="rId3"/>
     <sheet name="Pagina 4" sheetId="13" r:id="rId4"/>
@@ -22,6 +22,7 @@
     <sheet name="Pagina 8" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="140001"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="150">
   <si>
     <t>MMPI-2-RF</t>
   </si>
@@ -43,33 +44,9 @@
     <t xml:space="preserve">        </t>
   </si>
   <si>
-    <t>PROFILO GRAFICO</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
     <t>Data somministrazione</t>
   </si>
   <si>
-    <t>Età alla somministrazione</t>
-  </si>
-  <si>
-    <t>Anni di studio</t>
-  </si>
-  <si>
-    <t>Situazione di coppia</t>
-  </si>
-  <si>
-    <t>Pagina 1 di 7</t>
-  </si>
-  <si>
     <t>Scala</t>
   </si>
   <si>
@@ -472,12 +449,6 @@
     <t>Pagina 8 di 8</t>
   </si>
   <si>
-    <t>Minnesota Multiphasic Personality Inventory - 2</t>
-  </si>
-  <si>
-    <t>Restructured Form</t>
-  </si>
-  <si>
     <t>Realizzato da Yossef S. Ben-Porath e Auke Tellegen</t>
   </si>
   <si>
@@ -490,41 +461,32 @@
     <t>Edizione italiana © 2012, Giunti O.S. Organizzazioni Speciali - Firenze.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Correzione manuale effettuata da </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[nome persona]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> e profilo grafico tramite Excel realizzato da ITCI © e concesso in uso ai membri</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Correzione manuale effettuata da </t>
   </si>
   <si>
     <t>Nominativo: Mercuzio Bruno</t>
+  </si>
+  <si>
+    <t>Correzione manuale effettuata da Emiliano Lambiase e profilo grafico tramite Excel realizzato da ITCI © e concesso in uso ai membri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Minnesota Multiphasic Personality Inventory - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Restructured Form</t>
+  </si>
+  <si>
+    <t>Cognome e nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correzione manuale </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -622,32 +584,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="3"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Berlin Sans FB Demi"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -659,8 +601,74 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF005AAC"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF1F497D"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF1F497D"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,12 +677,6 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -752,7 +754,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -794,18 +796,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -845,54 +835,69 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="24" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -960,7 +965,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1155,11 +1162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-370368304"/>
-        <c:axId val="-370362320"/>
+        <c:axId val="-395472064"/>
+        <c:axId val="-395470976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-370368304"/>
+        <c:axId val="-395472064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1195,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-370362320"/>
+        <c:crossAx val="-395470976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1196,7 +1203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370362320"/>
+        <c:axId val="-395470976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1215,7 +1222,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="-370362320"/>
+        <c:crossAx val="-395470976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1369,11 +1376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-370345456"/>
-        <c:axId val="-370349808"/>
+        <c:axId val="-830300720"/>
+        <c:axId val="-830296368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-370345456"/>
+        <c:axId val="-830300720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1409,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-370349808"/>
+        <c:crossAx val="-830296368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1410,7 +1417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370349808"/>
+        <c:axId val="-830296368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1429,7 +1436,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="-370349808"/>
+        <c:crossAx val="-830296368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1585,11 +1592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-370356336"/>
-        <c:axId val="-370359600"/>
+        <c:axId val="-830629824"/>
+        <c:axId val="-830641792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-370356336"/>
+        <c:axId val="-830629824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +1625,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-370359600"/>
+        <c:crossAx val="-830641792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1626,7 +1633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370359600"/>
+        <c:axId val="-830641792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1645,7 +1652,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="-370359600"/>
+        <c:crossAx val="-830641792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1793,11 +1800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-370355248"/>
-        <c:axId val="-370367760"/>
+        <c:axId val="-393862720"/>
+        <c:axId val="-393862176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-370355248"/>
+        <c:axId val="-393862720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,7 +1833,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-370367760"/>
+        <c:crossAx val="-393862176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1834,7 +1841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370367760"/>
+        <c:axId val="-393862176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1853,7 +1860,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="-370367760"/>
+        <c:crossAx val="-393862176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1969,11 +1976,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-370348176"/>
-        <c:axId val="-370349264"/>
+        <c:axId val="-393869248"/>
+        <c:axId val="-393873600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-370348176"/>
+        <c:axId val="-393869248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2009,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-370349264"/>
+        <c:crossAx val="-393873600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2010,7 +2017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370349264"/>
+        <c:axId val="-393873600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2029,7 +2036,7 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="-370349264"/>
+        <c:crossAx val="-393873600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2063,74 +2070,47 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66677</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>710664</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>8697</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="3009900" cy="901359"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Immagine 2" descr="Emiliano Lambiase"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="0"/>
-          <a:ext cx="3130014" cy="904047"/>
+          <a:off x="2886075" y="66677"/>
+          <a:ext cx="3009900" cy="901359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>709820</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1122</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>233704</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="5143500" cy="912556"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Immagine 4"/>
@@ -2146,16 +2126,17 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6377195" y="66675"/>
-          <a:ext cx="2358352" cy="414679"/>
+          <a:off x="142875" y="4638674"/>
+          <a:ext cx="5143500" cy="912556"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3066,486 +3047,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A15:L68"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="11.28515625" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="15"/>
+    <col min="1" max="8" width="11.28515625" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="15" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="60" t="s">
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J4" s="61" t="s">
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="55"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="56"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+    </row>
+    <row r="41" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+    </row>
+    <row r="43" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="61"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50" t="s">
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+    </row>
+    <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+    </row>
+    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+    </row>
+    <row r="46" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+    </row>
+    <row r="47" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="58" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G18" s="49"/>
-      <c r="H18" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.4">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="18"/>
-    </row>
-    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="18"/>
-    </row>
-    <row r="34" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="18"/>
-    </row>
-    <row r="35" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="18"/>
-    </row>
-    <row r="36" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="18"/>
-    </row>
-    <row r="37" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="18"/>
-    </row>
-    <row r="38" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="18"/>
-    </row>
-    <row r="39" spans="5:11" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="17"/>
-    </row>
-    <row r="40" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="18"/>
-    </row>
-    <row r="41" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="18"/>
-    </row>
-    <row r="42" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="18"/>
-    </row>
-    <row r="43" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="18"/>
-    </row>
-    <row r="44" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="18"/>
-    </row>
-    <row r="45" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="18"/>
-    </row>
-    <row r="46" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="18"/>
-    </row>
-    <row r="47" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E47" s="58"/>
       <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="18"/>
-    </row>
-    <row r="48" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="18"/>
-    </row>
-    <row r="49" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="17"/>
-    </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="86"/>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="86"/>
-      <c r="K64" s="86"/>
-      <c r="L64" s="86"/>
-    </row>
-    <row r="65" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="L65"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="L66"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+    </row>
+    <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+    </row>
+    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+    </row>
+    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+    </row>
+    <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+    </row>
+    <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="68"/>
+    </row>
+    <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="68"/>
+    </row>
+    <row r="64" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="68"/>
+    </row>
+    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L66" s="69" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="L67"/>
+      <c r="L67" s="69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="96"/>
+      <c r="K68" s="96"/>
+      <c r="L68" s="96"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="48">
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="E45:G45"/>
+  <mergeCells count="5">
+    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="G45:L45"/>
+    <mergeCell ref="G47:L47"/>
+    <mergeCell ref="G17:K17"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.30000000000000004" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
+  <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <firstFooter>&amp;CProfilo grafico in Excel realizzato da ITCI © e concesso in uso ai membri</firstFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3557,8 +3493,8 @@
   </sheetPr>
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:J48"/>
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3569,121 +3505,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="68" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
+      <c r="A4" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53">
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40">
         <v>111</v>
       </c>
-      <c r="H44" s="53">
+      <c r="H44" s="40">
         <v>119</v>
       </c>
-      <c r="I44" s="53">
+      <c r="I44" s="40">
         <v>87</v>
       </c>
-      <c r="J44" s="53">
+      <c r="J44" s="40">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1">
         <v>5</v>
@@ -3715,7 +3651,7 @@
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1">
         <v>55</v>
@@ -3747,7 +3683,7 @@
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -3836,16 +3772,16 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="54" t="s">
-        <v>27</v>
+      <c r="A51" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
+      <c r="D51" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
       <c r="G51" s="11"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -3855,42 +3791,42 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
+      <c r="D52" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
       <c r="G52" s="11"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="53">
+      <c r="B53" s="40">
         <v>50</v>
       </c>
-      <c r="C53" s="53">
+      <c r="C53" s="40">
         <v>50</v>
       </c>
-      <c r="D53" s="53">
+      <c r="D53" s="40">
         <v>50</v>
       </c>
-      <c r="E53" s="53">
+      <c r="E53" s="40">
         <v>50</v>
       </c>
-      <c r="F53" s="53">
+      <c r="F53" s="40">
         <v>50</v>
       </c>
-      <c r="G53" s="53">
+      <c r="G53" s="40">
         <v>50</v>
       </c>
-      <c r="H53" s="53">
+      <c r="H53" s="40">
         <v>50</v>
       </c>
-      <c r="I53" s="53">
+      <c r="I53" s="40">
         <v>50</v>
       </c>
-      <c r="J53" s="53">
+      <c r="J53" s="40">
         <v>50</v>
       </c>
     </row>
@@ -3909,23 +3845,23 @@
     </row>
     <row r="55" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
+        <v>7</v>
+      </c>
+      <c r="B55" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
+        <v>23</v>
+      </c>
+      <c r="G55" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
     </row>
     <row r="56" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
@@ -3941,19 +3877,19 @@
     </row>
     <row r="57" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -3973,19 +3909,19 @@
     </row>
     <row r="59" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -4005,19 +3941,19 @@
     </row>
     <row r="61" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -4025,42 +3961,42 @@
     </row>
     <row r="62" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
     </row>
     <row r="63" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
     </row>
     <row r="64" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
+      <c r="A64" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4105,130 +4041,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83">
         <v>42244</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
     </row>
     <row r="4" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
+      <c r="A4" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
     </row>
     <row r="5" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4246,7 +4182,7 @@
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4264,7 +4200,7 @@
     </row>
     <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4341,235 +4277,235 @@
       <c r="O53" s="9"/>
     </row>
     <row r="54" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+    </row>
+    <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+    </row>
+    <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L56" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+    </row>
+    <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+    </row>
+    <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L58" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+    </row>
+    <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
+      <c r="B59" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+    </row>
+    <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L60" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+    </row>
+    <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+    </row>
+    <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="H62" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="L54" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-    </row>
-    <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-    </row>
-    <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="L56" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-    </row>
-    <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-    </row>
-    <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-    </row>
-    <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-      <c r="B59" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-    </row>
-    <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="30"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-    </row>
-    <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-    </row>
-    <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="31"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
     </row>
     <row r="67" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" s="74"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="74"/>
-      <c r="L67" s="74"/>
-      <c r="M67" s="74"/>
-      <c r="N67" s="74"/>
+      <c r="A67" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="84"/>
+      <c r="K67" s="84"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="84"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4599,148 +4535,148 @@
   </sheetPr>
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView view="pageLayout" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83">
         <v>42244</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
     </row>
     <row r="4" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
+      <c r="A4" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
     </row>
     <row r="5" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
     </row>
     <row r="45" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="N45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4754,7 +4690,7 @@
     </row>
     <row r="47" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4768,7 +4704,7 @@
     </row>
     <row r="48" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4782,7 +4718,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -4837,252 +4773,252 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="G54" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="N54" s="19"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+    </row>
+    <row r="55" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+    </row>
+    <row r="56" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="21"/>
+      <c r="G56" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="N56" s="19"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+    </row>
+    <row r="57" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+    </row>
+    <row r="58" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="21"/>
+      <c r="G58" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="M58" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N58" s="19"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+    </row>
+    <row r="59" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+    </row>
+    <row r="60" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="G60" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="H60" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="N60" s="19"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+    </row>
+    <row r="61" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+    </row>
+    <row r="62" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="G62" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="G54" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M54" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="N54" s="25"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-    </row>
-    <row r="55" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-    </row>
-    <row r="56" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="27"/>
-      <c r="G56" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="M56" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="N56" s="25"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-    </row>
-    <row r="57" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-    </row>
-    <row r="58" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="27"/>
-      <c r="G58" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="M58" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N58" s="25"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-    </row>
-    <row r="59" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-    </row>
-    <row r="60" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="G60" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="M60" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="N60" s="25"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-    </row>
-    <row r="61" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-    </row>
-    <row r="62" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="G62" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
     </row>
     <row r="63" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
     </row>
     <row r="74" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" s="74"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="74"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="74"/>
-      <c r="M74" s="74"/>
-      <c r="N74" s="74"/>
+      <c r="A74" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="84"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="84"/>
+      <c r="J74" s="84"/>
+      <c r="K74" s="84"/>
+      <c r="L74" s="84"/>
+      <c r="M74" s="84"/>
+      <c r="N74" s="84"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5118,129 +5054,129 @@
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83">
         <v>42244</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
     </row>
     <row r="4" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
+      <c r="A4" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5258,7 +5194,7 @@
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5276,7 +5212,7 @@
     </row>
     <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5294,7 +5230,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -5348,239 +5284,239 @@
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="G54" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="N54" s="19"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+    </row>
+    <row r="55" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+    </row>
+    <row r="56" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="21"/>
+      <c r="G56" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N56" s="19"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+    </row>
+    <row r="57" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+    </row>
+    <row r="58" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="21"/>
+      <c r="G58" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+    </row>
+    <row r="59" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+    </row>
+    <row r="60" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="G60" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+    </row>
+    <row r="61" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+    </row>
+    <row r="62" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="G62" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="G54" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="M54" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N54" s="25"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-    </row>
-    <row r="55" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-    </row>
-    <row r="56" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="27"/>
-      <c r="G56" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="M56" s="25" t="s">
+      <c r="H62" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="N56" s="25"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-    </row>
-    <row r="57" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-    </row>
-    <row r="58" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="27"/>
-      <c r="G58" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-    </row>
-    <row r="59" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-    </row>
-    <row r="60" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="G60" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-    </row>
-    <row r="61" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-    </row>
-    <row r="62" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="G62" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
     </row>
     <row r="63" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
     </row>
     <row r="69" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="74"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="74"/>
-      <c r="J69" s="74"/>
-      <c r="K69" s="74"/>
-      <c r="L69" s="74"/>
-      <c r="M69" s="74"/>
-      <c r="N69" s="74"/>
+      <c r="A69" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5618,85 +5554,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="68" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
+      <c r="A4" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -5704,7 +5640,7 @@
     </row>
     <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5717,7 +5653,7 @@
     </row>
     <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5730,7 +5666,7 @@
     </row>
     <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5743,7 +5679,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -5769,9 +5705,9 @@
       <c r="A51" s="12"/>
       <c r="B51" s="11"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
       <c r="G51" s="11"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -5781,9 +5717,9 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
       <c r="G52" s="11"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -5804,23 +5740,23 @@
     </row>
     <row r="55" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G55" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
     </row>
     <row r="56" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
@@ -5836,19 +5772,19 @@
     </row>
     <row r="57" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -5868,10 +5804,10 @@
     </row>
     <row r="59" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -5908,44 +5844,44 @@
     </row>
     <row r="62" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
     </row>
     <row r="63" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
     </row>
     <row r="64" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
+      <c r="A67" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5985,62 +5921,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="79" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -6075,476 +6011,476 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F6" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
+      <c r="F6" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33">
+      <c r="B9" s="27">
         <v>1</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
     </row>
     <row r="10" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33">
+      <c r="B10" s="27">
         <v>21</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
     </row>
     <row r="11" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
+      <c r="B11" s="29">
         <v>41</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
     </row>
     <row r="12" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33">
+      <c r="B12" s="27">
         <v>61</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
     </row>
     <row r="13" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="35">
+      <c r="B13" s="29">
         <v>81</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
     </row>
     <row r="14" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35">
+      <c r="B14" s="29">
         <v>101</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
     </row>
     <row r="15" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="35">
+      <c r="B15" s="29">
         <v>121</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
     </row>
     <row r="16" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="35">
+      <c r="B16" s="29">
         <v>141</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
     </row>
     <row r="17" spans="1:22" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35">
+      <c r="B17" s="29">
         <v>161</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
     </row>
     <row r="18" spans="1:22" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="35">
+      <c r="B18" s="29">
         <v>181</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
     </row>
     <row r="19" spans="1:22" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="35">
+      <c r="B19" s="29">
         <v>201</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
     </row>
     <row r="20" spans="1:22" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="37">
+      <c r="A20" s="26"/>
+      <c r="B20" s="31">
         <v>221</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
     </row>
     <row r="21" spans="1:22" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="37">
+      <c r="A21" s="26"/>
+      <c r="B21" s="31">
         <v>241</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
     </row>
     <row r="22" spans="1:22" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="37">
+      <c r="A22" s="26"/>
+      <c r="B22" s="31">
         <v>261</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
     </row>
     <row r="23" spans="1:22" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="35">
+      <c r="B23" s="29">
         <v>281</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
     </row>
     <row r="24" spans="1:22" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="35">
+      <c r="B24" s="29">
         <v>301</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
     </row>
     <row r="25" spans="1:22" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="33">
+      <c r="B25" s="27">
         <v>321</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
     </row>
     <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:22" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6552,7 +6488,7 @@
     <row r="62" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -6607,38 +6543,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="79" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -6673,813 +6609,813 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="40"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="40"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="41"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="41"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="41"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="41"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="41"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="41"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="41"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="41"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="41"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="41"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="42"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="42"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="42"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="41"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="41"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="35"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="41"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="35"/>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="41"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="41"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="41"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="41"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="41"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="41"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="41"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="41"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="41"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="35"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="41"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="35"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="41"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="35"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="41"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="35"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="41"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="35"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="41"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="35"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="41"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="35"/>
     </row>
     <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="41"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="35"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="41"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="35"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="41"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="35"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="41"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="35"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="41"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="35"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="41"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="35"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="41"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="35"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="41"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="35"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="41"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="35"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="41"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="35"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="41"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="35"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="41"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="41"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="35"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="41"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="35"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="41"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="35"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="41"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="35"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="41"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="35"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="41"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="35"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="41"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="35"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="41"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="95"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="35"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="41"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="95"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="35"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85"/>
-      <c r="K62" s="41"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="95"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="35"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
-      <c r="K63" s="41"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="35"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="41"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="95"/>
+      <c r="H64" s="95"/>
+      <c r="I64" s="95"/>
+      <c r="J64" s="95"/>
+      <c r="K64" s="35"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="85"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
-      <c r="K65" s="41"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="35"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="85"/>
-      <c r="K66" s="41"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="35"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="85"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="85"/>
-      <c r="K67" s="41"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="95"/>
+      <c r="K67" s="35"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="44"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="85"/>
-      <c r="I68" s="85"/>
-      <c r="J68" s="85"/>
-      <c r="K68" s="41"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="95"/>
+      <c r="J68" s="95"/>
+      <c r="K68" s="35"/>
     </row>
     <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
